--- a/src/test/resources/io.dingodb.test/testdata/txnlsmmysqlcases/dql/casegroup1/mysql_dql_cases1_txnlsm.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnlsmmysqlcases/dql/casegroup1/mysql_dql_cases1_txnlsm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15604" uniqueCount="5983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15578" uniqueCount="5983">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21194,8 +21194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1756" workbookViewId="0">
-      <selection activeCell="F1773" sqref="F1773"/>
+    <sheetView tabSelected="1" topLeftCell="A1546" workbookViewId="0">
+      <selection activeCell="F1569" sqref="F1569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -64131,9 +64131,7 @@
       <c r="G1546" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="H1546" s="1" t="s">
-        <v>5731</v>
-      </c>
+      <c r="H1546" s="9"/>
       <c r="I1546" s="1" t="s">
         <v>2759</v>
       </c>
@@ -64166,9 +64164,7 @@
       <c r="G1547" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="H1547" s="1" t="s">
-        <v>5731</v>
-      </c>
+      <c r="H1547" s="9"/>
       <c r="I1547" s="1" t="s">
         <v>2760</v>
       </c>
@@ -64233,9 +64229,7 @@
       <c r="G1549" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="H1549" s="1" t="s">
-        <v>5734</v>
-      </c>
+      <c r="H1549" s="9"/>
       <c r="I1549" s="1" t="s">
         <v>2769</v>
       </c>
@@ -64268,9 +64262,7 @@
       <c r="G1550" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="H1550" s="1" t="s">
-        <v>5734</v>
-      </c>
+      <c r="H1550" s="9"/>
       <c r="I1550" s="1" t="s">
         <v>2770</v>
       </c>
@@ -64367,9 +64359,7 @@
       <c r="G1553" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="H1553" s="1" t="s">
-        <v>5738</v>
-      </c>
+      <c r="H1553" s="9"/>
       <c r="I1553" s="1" t="s">
         <v>2789</v>
       </c>
@@ -64402,9 +64392,7 @@
       <c r="G1554" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="H1554" s="1" t="s">
-        <v>5738</v>
-      </c>
+      <c r="H1554" s="9"/>
       <c r="I1554" s="1" t="s">
         <v>2790</v>
       </c>
@@ -64437,9 +64425,7 @@
       <c r="G1555" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="H1555" s="1" t="s">
-        <v>5738</v>
-      </c>
+      <c r="H1555" s="9"/>
       <c r="I1555" s="1" t="s">
         <v>2791</v>
       </c>
@@ -64472,9 +64458,7 @@
       <c r="G1556" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="H1556" s="1" t="s">
-        <v>5738</v>
-      </c>
+      <c r="H1556" s="9"/>
       <c r="I1556" s="1" t="s">
         <v>2792</v>
       </c>
@@ -64507,9 +64491,7 @@
       <c r="G1557" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="H1557" s="1" t="s">
-        <v>5738</v>
-      </c>
+      <c r="H1557" s="9"/>
       <c r="I1557" s="1" t="s">
         <v>2793</v>
       </c>
@@ -64574,9 +64556,7 @@
       <c r="G1559" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="H1559" s="1" t="s">
-        <v>5744</v>
-      </c>
+      <c r="H1559" s="9"/>
       <c r="I1559" s="1" t="s">
         <v>2801</v>
       </c>
@@ -64609,9 +64589,7 @@
       <c r="G1560" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="H1560" s="1" t="s">
-        <v>5744</v>
-      </c>
+      <c r="H1560" s="9"/>
       <c r="I1560" s="1" t="s">
         <v>2803</v>
       </c>
@@ -64644,9 +64622,7 @@
       <c r="G1561" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="H1561" s="1" t="s">
-        <v>5744</v>
-      </c>
+      <c r="H1561" s="9"/>
       <c r="I1561" s="1" t="s">
         <v>2804</v>
       </c>
@@ -64679,9 +64655,7 @@
       <c r="G1562" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="H1562" s="1" t="s">
-        <v>5744</v>
-      </c>
+      <c r="H1562" s="9"/>
       <c r="I1562" s="1" t="s">
         <v>2805</v>
       </c>
@@ -64746,9 +64720,7 @@
       <c r="G1564" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="H1564" s="1" t="s">
-        <v>5749</v>
-      </c>
+      <c r="H1564" s="9"/>
       <c r="I1564" s="1" t="s">
         <v>2812</v>
       </c>
@@ -64781,9 +64753,7 @@
       <c r="G1565" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="H1565" s="1" t="s">
-        <v>5749</v>
-      </c>
+      <c r="H1565" s="9"/>
       <c r="I1565" s="1" t="s">
         <v>2813</v>
       </c>
@@ -64848,9 +64818,7 @@
       <c r="G1567" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="H1567" s="1" t="s">
-        <v>5752</v>
-      </c>
+      <c r="H1567" s="9"/>
       <c r="I1567" s="1" t="s">
         <v>2819</v>
       </c>
@@ -64883,9 +64851,7 @@
       <c r="G1568" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="H1568" s="1" t="s">
-        <v>5738</v>
-      </c>
+      <c r="H1568" s="9"/>
       <c r="I1568" s="1" t="s">
         <v>2822</v>
       </c>
@@ -64918,9 +64884,7 @@
       <c r="G1569" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="H1569" s="1" t="s">
-        <v>5731</v>
-      </c>
+      <c r="H1569" s="9"/>
       <c r="I1569" s="1" t="s">
         <v>2830</v>
       </c>
@@ -64953,9 +64917,7 @@
       <c r="G1570" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="H1570" s="1" t="s">
-        <v>5734</v>
-      </c>
+      <c r="H1570" s="9"/>
       <c r="I1570" s="1" t="s">
         <v>2833</v>
       </c>
@@ -64988,9 +64950,7 @@
       <c r="G1571" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="H1571" s="1" t="s">
-        <v>5738</v>
-      </c>
+      <c r="H1571" s="9"/>
       <c r="I1571" s="1" t="s">
         <v>2835</v>
       </c>
@@ -65023,9 +64983,7 @@
       <c r="G1572" s="1" t="s">
         <v>2836</v>
       </c>
-      <c r="H1572" s="1" t="s">
-        <v>5737</v>
-      </c>
+      <c r="H1572" s="9"/>
       <c r="I1572" s="1" t="s">
         <v>2837</v>
       </c>
@@ -65058,9 +65016,7 @@
       <c r="G1573" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="H1573" s="1" t="s">
-        <v>5744</v>
-      </c>
+      <c r="H1573" s="9"/>
       <c r="I1573" s="1" t="s">
         <v>2839</v>
       </c>
@@ -65093,9 +65049,7 @@
       <c r="G1574" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="H1574" s="1" t="s">
-        <v>5749</v>
-      </c>
+      <c r="H1574" s="9"/>
       <c r="I1574" s="1" t="s">
         <v>2841</v>
       </c>
@@ -65128,9 +65082,7 @@
       <c r="G1575" s="1" t="s">
         <v>2842</v>
       </c>
-      <c r="H1575" s="1" t="s">
-        <v>5752</v>
-      </c>
+      <c r="H1575" s="9"/>
       <c r="I1575" s="1" t="s">
         <v>2843</v>
       </c>
@@ -65163,9 +65115,7 @@
       <c r="G1576" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="H1576" s="1" t="s">
-        <v>5731</v>
-      </c>
+      <c r="H1576" s="9"/>
       <c r="I1576" s="1" t="s">
         <v>2847</v>
       </c>
@@ -65198,9 +65148,7 @@
       <c r="G1577" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="H1577" s="1" t="s">
-        <v>5738</v>
-      </c>
+      <c r="H1577" s="9"/>
       <c r="I1577" s="1" t="s">
         <v>2849</v>
       </c>
